--- a/Book_SharePoint_List_Content.xlsx
+++ b/Book_SharePoint_List_Content.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wortell-my.sharepoint.com/personal/bart_schaap_wortell_nl/Documents/PowerApps/Wortell/Werkplek app/Installation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:40001_{703434AB-3F3B-4CE1-98E7-C9A7C6B0B655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FDE8BD1A-8520-4123-8495-770458725508}"/>
+  <xr:revisionPtr revIDLastSave="142" documentId="13_ncr:40001_{703434AB-3F3B-4CE1-98E7-C9A7C6B0B655}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4918FEA7-0614-4C9B-9350-68336FF5134B}"/>
   <bookViews>
-    <workbookView xWindow="31605" yWindow="1590" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="1920" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RR_Settings" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="240">
   <si>
     <t>Key</t>
   </si>
@@ -781,6 +781,9 @@
   </si>
   <si>
     <t>RRZ08</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -2308,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,8 +2361,8 @@
       <c r="E2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="b">
-        <v>0</v>
+      <c r="F2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2378,8 +2381,8 @@
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F3" t="b">
-        <v>0</v>
+      <c r="F3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2396,8 +2399,8 @@
         <v>38</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" t="b">
-        <v>0</v>
+      <c r="F4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2414,8 +2417,8 @@
         <v>41</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" t="b">
-        <v>0</v>
+      <c r="F5" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2432,8 +2435,8 @@
         <v>44</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" t="b">
-        <v>0</v>
+      <c r="F6" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2450,8 +2453,8 @@
         <v>47</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" t="b">
-        <v>0</v>
+      <c r="F7" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2468,8 +2471,8 @@
         <v>50</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" t="b">
-        <v>0</v>
+      <c r="F8" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -2486,8 +2489,8 @@
         <v>53</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" t="b">
-        <v>0</v>
+      <c r="F9" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2504,8 +2507,8 @@
         <v>56</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" t="b">
-        <v>0</v>
+      <c r="F10" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -2522,8 +2525,8 @@
         <v>50</v>
       </c>
       <c r="E11" s="2"/>
-      <c r="F11" t="b">
-        <v>0</v>
+      <c r="F11" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2540,8 +2543,8 @@
         <v>61</v>
       </c>
       <c r="E12" s="2"/>
-      <c r="F12" t="b">
-        <v>0</v>
+      <c r="F12" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2558,8 +2561,8 @@
         <v>50</v>
       </c>
       <c r="E13" s="2"/>
-      <c r="F13" t="b">
-        <v>0</v>
+      <c r="F13" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2576,8 +2579,8 @@
         <v>47</v>
       </c>
       <c r="E14" s="2"/>
-      <c r="F14" t="b">
-        <v>0</v>
+      <c r="F14" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -2594,8 +2597,8 @@
         <v>53</v>
       </c>
       <c r="E15" s="2"/>
-      <c r="F15" t="b">
-        <v>0</v>
+      <c r="F15" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -2612,8 +2615,8 @@
         <v>68</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" t="b">
-        <v>0</v>
+      <c r="F16" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2632,8 +2635,8 @@
       <c r="E17" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F17" t="b">
-        <v>0</v>
+      <c r="F17" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2650,8 +2653,8 @@
         <v>75</v>
       </c>
       <c r="E18" s="2"/>
-      <c r="F18" t="b">
-        <v>0</v>
+      <c r="F18" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2668,8 +2671,8 @@
         <v>78</v>
       </c>
       <c r="E19" s="2"/>
-      <c r="F19" t="b">
-        <v>0</v>
+      <c r="F19" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2686,8 +2689,8 @@
         <v>81</v>
       </c>
       <c r="E20" s="2"/>
-      <c r="F20" t="b">
-        <v>0</v>
+      <c r="F20" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2706,8 +2709,8 @@
       <c r="E21" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F21" t="b">
-        <v>0</v>
+      <c r="F21" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2724,8 +2727,8 @@
         <v>68</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" t="b">
-        <v>0</v>
+      <c r="F22" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2742,8 +2745,8 @@
         <v>89</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" t="b">
-        <v>0</v>
+      <c r="F23" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2762,8 +2765,8 @@
       <c r="E24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F24" t="b">
-        <v>0</v>
+      <c r="F24" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2782,8 +2785,8 @@
       <c r="E25" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F25" t="b">
-        <v>0</v>
+      <c r="F25" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2802,8 +2805,8 @@
       <c r="E26" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F26" t="b">
-        <v>0</v>
+      <c r="F26" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2820,8 +2823,8 @@
         <v>103</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" t="b">
-        <v>0</v>
+      <c r="F27" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2838,8 +2841,8 @@
         <v>53</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" t="b">
-        <v>0</v>
+      <c r="F28" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2856,8 +2859,8 @@
         <v>107</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" t="b">
-        <v>0</v>
+      <c r="F29" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2874,8 +2877,8 @@
         <v>110</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" t="b">
-        <v>0</v>
+      <c r="F30" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2892,8 +2895,8 @@
         <v>113</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" t="b">
-        <v>0</v>
+      <c r="F31" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -2910,8 +2913,8 @@
         <v>116</v>
       </c>
       <c r="E32" s="2"/>
-      <c r="F32" t="b">
-        <v>0</v>
+      <c r="F32" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2928,8 +2931,8 @@
         <v>119</v>
       </c>
       <c r="E33" s="2"/>
-      <c r="F33" t="b">
-        <v>0</v>
+      <c r="F33" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2946,8 +2949,8 @@
         <v>122</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="F34" t="b">
-        <v>0</v>
+      <c r="F34" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2964,8 +2967,8 @@
         <v>125</v>
       </c>
       <c r="E35" s="2"/>
-      <c r="F35" t="b">
-        <v>0</v>
+      <c r="F35" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2982,8 +2985,8 @@
         <v>128</v>
       </c>
       <c r="E36" s="2"/>
-      <c r="F36" t="b">
-        <v>0</v>
+      <c r="F36" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -3000,8 +3003,8 @@
         <v>131</v>
       </c>
       <c r="E37" s="2"/>
-      <c r="F37" t="b">
-        <v>0</v>
+      <c r="F37" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -3018,8 +3021,8 @@
         <v>134</v>
       </c>
       <c r="E38" s="2"/>
-      <c r="F38" t="b">
-        <v>0</v>
+      <c r="F38" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -3036,8 +3039,8 @@
         <v>137</v>
       </c>
       <c r="E39" s="2"/>
-      <c r="F39" t="b">
-        <v>0</v>
+      <c r="F39" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -3054,8 +3057,8 @@
         <v>140</v>
       </c>
       <c r="E40" s="2"/>
-      <c r="F40" t="b">
-        <v>0</v>
+      <c r="F40" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -3074,8 +3077,8 @@
       <c r="E41" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F41" t="b">
-        <v>0</v>
+      <c r="F41" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -3094,8 +3097,8 @@
       <c r="E42" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F42" t="b">
-        <v>0</v>
+      <c r="F42" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -3112,8 +3115,8 @@
         <v>151</v>
       </c>
       <c r="E43" s="2"/>
-      <c r="F43" t="b">
-        <v>0</v>
+      <c r="F43" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -3130,8 +3133,8 @@
         <v>137</v>
       </c>
       <c r="E44" s="2"/>
-      <c r="F44" t="b">
-        <v>0</v>
+      <c r="F44" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3148,8 +3151,8 @@
         <v>134</v>
       </c>
       <c r="E45" s="2"/>
-      <c r="F45" t="b">
-        <v>0</v>
+      <c r="F45" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -3168,8 +3171,8 @@
       <c r="E46" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F46" t="b">
-        <v>0</v>
+      <c r="F46" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -3186,8 +3189,8 @@
         <v>160</v>
       </c>
       <c r="E47" s="2"/>
-      <c r="F47" t="b">
-        <v>0</v>
+      <c r="F47" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -3206,8 +3209,8 @@
       <c r="E48" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="F48" t="b">
-        <v>0</v>
+      <c r="F48" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3434,7 +3437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
